--- a/Modélisation/3.Dictionnaire de données/متدرب.xlsx
+++ b/Modélisation/3.Dictionnaire de données/متدرب.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
